--- a/attendance-files/LMPO/LMPO Attendance.xlsx
+++ b/attendance-files/LMPO/LMPO Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="163">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Abhishek Chauhan</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
   <si>
     <t>2024PGP026</t>
@@ -568,11 +571,11 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,6 +598,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBE5F1"/>
         <bgColor rgb="FFDBE5F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -853,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -967,16 +976,10 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="19" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -986,6 +989,9 @@
     </xf>
     <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -1534,21 +1540,21 @@
       </c>
       <c r="F7" s="39">
         <f t="shared" ref="F7:F65" si="2">COUNTIF(G7:U7,"P")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="40" t="s">
+      <c r="H7" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="41" t="s">
         <v>45</v>
       </c>
       <c r="J7" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="41" t="s">
         <v>45</v>
       </c>
       <c r="L7" s="40" t="s">
@@ -1569,17 +1575,21 @@
       <c r="Q7" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="R7" s="40" t="s">
+      <c r="R7" s="41" t="s">
         <v>45</v>
       </c>
       <c r="S7" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
+      <c r="T7" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V7" s="33">
         <f t="shared" ref="V7:V65" si="3">COUNTIF(G7:U7,"P") / COUNTA(G7:U7) *100</f>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W7" s="30"/>
       <c r="X7" s="6"/>
@@ -1604,18 +1614,18 @@
       </c>
       <c r="F8" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="41" t="s">
         <v>45</v>
       </c>
       <c r="K8" s="40" t="s">
@@ -1624,13 +1634,13 @@
       <c r="L8" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="41" t="s">
         <v>45</v>
       </c>
       <c r="N8" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="41" t="s">
         <v>45</v>
       </c>
       <c r="P8" s="40" t="s">
@@ -1645,11 +1655,15 @@
       <c r="S8" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="42"/>
-      <c r="U8" s="43"/>
+      <c r="T8" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U8" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V8" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W8" s="30"/>
       <c r="X8" s="6"/>
@@ -1674,12 +1688,12 @@
       </c>
       <c r="F9" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I9" s="40" t="s">
@@ -1688,13 +1702,13 @@
       <c r="J9" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="41" t="s">
         <v>45</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="41" t="s">
         <v>45</v>
       </c>
       <c r="N9" s="40" t="s">
@@ -1715,11 +1729,15 @@
       <c r="S9" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
+      <c r="T9" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="41" t="s">
+        <v>45</v>
+      </c>
       <c r="V9" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W9" s="30"/>
       <c r="X9" s="6"/>
@@ -1732,10 +1750,10 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="39">
@@ -1744,12 +1762,12 @@
       </c>
       <c r="F10" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I10" s="40" t="s">
@@ -1761,7 +1779,7 @@
       <c r="K10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="41" t="s">
         <v>45</v>
       </c>
       <c r="M10" s="40" t="s">
@@ -1785,11 +1803,15 @@
       <c r="S10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
+      <c r="T10" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V10" s="33">
         <f t="shared" si="3"/>
-        <v>92.30769231</v>
+        <v>93.33333333</v>
       </c>
       <c r="W10" s="30"/>
       <c r="X10" s="6"/>
@@ -1802,10 +1824,10 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="39">
@@ -1814,15 +1836,15 @@
       </c>
       <c r="F11" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="40" t="s">
+      <c r="H11" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="41" t="s">
         <v>45</v>
       </c>
       <c r="J11" s="40" t="s">
@@ -1831,10 +1853,10 @@
       <c r="K11" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="40" t="s">
+      <c r="L11" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="41" t="s">
         <v>45</v>
       </c>
       <c r="N11" s="40" t="s">
@@ -1855,11 +1877,15 @@
       <c r="S11" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
+      <c r="T11" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V11" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W11" s="30"/>
       <c r="X11" s="6"/>
@@ -1872,10 +1898,10 @@
         <v>6.0</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="39">
@@ -1884,12 +1910,12 @@
       </c>
       <c r="F12" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I12" s="40" t="s">
@@ -1925,8 +1951,12 @@
       <c r="S12" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
+      <c r="T12" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V12" s="33">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -1942,31 +1972,31 @@
         <v>7.0</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="39">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K13" s="40" t="s">
         <v>44</v>
@@ -1977,10 +2007,10 @@
       <c r="M13" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13" s="40" t="s">
+      <c r="N13" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="41" t="s">
         <v>45</v>
       </c>
       <c r="P13" s="40" t="s">
@@ -1989,17 +2019,21 @@
       <c r="Q13" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="R13" s="40" t="s">
+      <c r="R13" s="41" t="s">
         <v>45</v>
       </c>
       <c r="S13" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
+      <c r="T13" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V13" s="33">
         <f t="shared" si="3"/>
-        <v>69.23076923</v>
+        <v>80</v>
       </c>
       <c r="W13" s="30"/>
       <c r="X13" s="6"/>
@@ -2012,10 +2046,10 @@
         <v>8.0</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="39">
@@ -2024,18 +2058,18 @@
       </c>
       <c r="F14" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="41" t="s">
         <v>45</v>
       </c>
       <c r="K14" s="40" t="s">
@@ -2047,13 +2081,13 @@
       <c r="M14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="40" t="s">
+      <c r="N14" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="40" t="s">
+      <c r="P14" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q14" s="40" t="s">
@@ -2065,11 +2099,15 @@
       <c r="S14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
+      <c r="T14" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V14" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W14" s="30"/>
       <c r="X14" s="6"/>
@@ -2082,10 +2120,10 @@
         <v>9.0</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="39">
@@ -2094,12 +2132,12 @@
       </c>
       <c r="F15" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I15" s="40" t="s">
@@ -2123,7 +2161,7 @@
       <c r="O15" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="P15" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q15" s="40" t="s">
@@ -2135,11 +2173,15 @@
       <c r="S15" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
+      <c r="T15" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V15" s="33">
         <f t="shared" si="3"/>
-        <v>92.30769231</v>
+        <v>93.33333333</v>
       </c>
       <c r="W15" s="30"/>
       <c r="X15" s="6"/>
@@ -2152,10 +2194,10 @@
         <v>10.0</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="39">
@@ -2164,12 +2206,12 @@
       </c>
       <c r="F16" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I16" s="40" t="s">
@@ -2181,19 +2223,19 @@
       <c r="K16" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="40" t="s">
+      <c r="L16" s="41" t="s">
         <v>45</v>
       </c>
       <c r="M16" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="40" t="s">
+      <c r="N16" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O16" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P16" s="40" t="s">
+      <c r="P16" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q16" s="40" t="s">
@@ -2205,11 +2247,15 @@
       <c r="S16" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
+      <c r="T16" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V16" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W16" s="30"/>
       <c r="X16" s="6"/>
@@ -2222,24 +2268,24 @@
         <v>11.0</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I17" s="40" t="s">
@@ -2257,7 +2303,7 @@
       <c r="M17" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="40" t="s">
+      <c r="N17" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O17" s="40" t="s">
@@ -2275,11 +2321,15 @@
       <c r="S17" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
+      <c r="T17" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U17" s="41" t="s">
+        <v>45</v>
+      </c>
       <c r="V17" s="33">
         <f t="shared" si="3"/>
-        <v>92.30769231</v>
+        <v>86.66666667</v>
       </c>
       <c r="W17" s="30"/>
       <c r="X17" s="6"/>
@@ -2292,10 +2342,10 @@
         <v>12.0</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="39">
@@ -2304,18 +2354,18 @@
       </c>
       <c r="F18" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I18" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="41" t="s">
         <v>45</v>
       </c>
       <c r="K18" s="40" t="s">
@@ -2325,7 +2375,7 @@
         <v>44</v>
       </c>
       <c r="M18" s="40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N18" s="40" t="s">
         <v>44</v>
@@ -2333,7 +2383,7 @@
       <c r="O18" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="40" t="s">
+      <c r="P18" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q18" s="40" t="s">
@@ -2345,11 +2395,15 @@
       <c r="S18" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
+      <c r="T18" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="U18" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V18" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W18" s="30"/>
       <c r="X18" s="6"/>
@@ -2362,24 +2416,24 @@
         <v>13.0</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I19" s="40" t="s">
@@ -2395,9 +2449,9 @@
         <v>44</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N19" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O19" s="40" t="s">
@@ -2412,14 +2466,18 @@
       <c r="R19" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="S19" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
+      <c r="S19" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="T19" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U19" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V19" s="33">
         <f t="shared" si="3"/>
-        <v>69.23076923</v>
+        <v>80</v>
       </c>
       <c r="W19" s="30"/>
       <c r="X19" s="6"/>
@@ -2432,10 +2490,10 @@
         <v>14.0</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="39">
@@ -2444,12 +2502,12 @@
       </c>
       <c r="F20" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I20" s="40" t="s">
@@ -2461,7 +2519,7 @@
       <c r="K20" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="40" t="s">
+      <c r="L20" s="41" t="s">
         <v>45</v>
       </c>
       <c r="M20" s="40" t="s">
@@ -2470,13 +2528,13 @@
       <c r="N20" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="O20" s="40" t="s">
+      <c r="O20" s="41" t="s">
         <v>45</v>
       </c>
       <c r="P20" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="Q20" s="40" t="s">
+      <c r="Q20" s="41" t="s">
         <v>45</v>
       </c>
       <c r="R20" s="40" t="s">
@@ -2485,11 +2543,15 @@
       <c r="S20" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
+      <c r="T20" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U20" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V20" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W20" s="30"/>
       <c r="X20" s="6"/>
@@ -2502,10 +2564,10 @@
         <v>15.0</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="39">
@@ -2514,21 +2576,21 @@
       </c>
       <c r="F21" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="40" t="s">
+      <c r="H21" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="41" t="s">
         <v>45</v>
       </c>
       <c r="J21" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="41" t="s">
         <v>45</v>
       </c>
       <c r="L21" s="40" t="s">
@@ -2537,7 +2599,7 @@
       <c r="M21" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="40" t="s">
+      <c r="N21" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O21" s="40" t="s">
@@ -2555,11 +2617,15 @@
       <c r="S21" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
+      <c r="T21" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U21" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V21" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W21" s="30"/>
       <c r="X21" s="6"/>
@@ -2572,10 +2638,10 @@
         <v>16.0</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="38"/>
       <c r="E22" s="39">
@@ -2584,12 +2650,12 @@
       </c>
       <c r="F22" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I22" s="40" t="s">
@@ -2598,13 +2664,13 @@
       <c r="J22" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="41" t="s">
         <v>45</v>
       </c>
       <c r="L22" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="40" t="s">
+      <c r="M22" s="41" t="s">
         <v>45</v>
       </c>
       <c r="N22" s="40" t="s">
@@ -2622,14 +2688,18 @@
       <c r="R22" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="S22" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
+      <c r="S22" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="T22" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U22" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V22" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W22" s="30"/>
       <c r="X22" s="6"/>
@@ -2642,24 +2712,24 @@
         <v>17.0</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I23" s="40" t="s">
@@ -2668,7 +2738,7 @@
       <c r="J23" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="41" t="s">
         <v>45</v>
       </c>
       <c r="L23" s="40" t="s">
@@ -2683,7 +2753,7 @@
       <c r="O23" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P23" s="40" t="s">
+      <c r="P23" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q23" s="40" t="s">
@@ -2695,11 +2765,15 @@
       <c r="S23" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
+      <c r="T23" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="U23" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V23" s="33">
         <f t="shared" si="3"/>
-        <v>84.61538462</v>
+        <v>80</v>
       </c>
       <c r="W23" s="30"/>
       <c r="X23" s="6"/>
@@ -2712,10 +2786,10 @@
         <v>18.0</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="39">
@@ -2724,12 +2798,12 @@
       </c>
       <c r="F24" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I24" s="40" t="s">
@@ -2747,13 +2821,13 @@
       <c r="M24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N24" s="40" t="s">
+      <c r="N24" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P24" s="40" t="s">
+      <c r="P24" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q24" s="40" t="s">
@@ -2765,11 +2839,15 @@
       <c r="S24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
+      <c r="T24" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U24" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V24" s="33">
         <f t="shared" si="3"/>
-        <v>84.61538462</v>
+        <v>86.66666667</v>
       </c>
       <c r="W24" s="30"/>
       <c r="X24" s="6"/>
@@ -2782,30 +2860,30 @@
         <v>19.0</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I25" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J25" s="40" t="s">
+      <c r="J25" s="41" t="s">
         <v>45</v>
       </c>
       <c r="K25" s="40" t="s">
@@ -2817,7 +2895,7 @@
       <c r="M25" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N25" s="40" t="s">
+      <c r="N25" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O25" s="40" t="s">
@@ -2835,11 +2913,15 @@
       <c r="S25" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
+      <c r="T25" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="U25" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V25" s="33">
         <f t="shared" si="3"/>
-        <v>84.61538462</v>
+        <v>80</v>
       </c>
       <c r="W25" s="30"/>
       <c r="X25" s="6"/>
@@ -2852,10 +2934,10 @@
         <v>20.0</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="39">
@@ -2864,12 +2946,12 @@
       </c>
       <c r="F26" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I26" s="40" t="s">
@@ -2878,10 +2960,10 @@
       <c r="J26" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K26" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="40" t="s">
+      <c r="K26" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="41" t="s">
         <v>45</v>
       </c>
       <c r="M26" s="40" t="s">
@@ -2905,11 +2987,15 @@
       <c r="S26" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
+      <c r="T26" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U26" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V26" s="33">
         <f t="shared" si="3"/>
-        <v>84.61538462</v>
+        <v>86.66666667</v>
       </c>
       <c r="W26" s="30"/>
       <c r="X26" s="6"/>
@@ -2922,19 +3008,19 @@
         <v>21.0</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="39">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>44</v>
@@ -2958,10 +3044,10 @@
         <v>44</v>
       </c>
       <c r="N27" s="40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O27" s="40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P27" s="40" t="s">
         <v>44</v>
@@ -2972,14 +3058,18 @@
       <c r="R27" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="S27" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
+      <c r="S27" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="T27" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="U27" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V27" s="33">
         <f t="shared" si="3"/>
-        <v>69.23076923</v>
+        <v>80</v>
       </c>
       <c r="W27" s="30"/>
       <c r="X27" s="6"/>
@@ -2992,10 +3082,10 @@
         <v>22.0</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="39">
@@ -3004,12 +3094,12 @@
       </c>
       <c r="F28" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G28" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I28" s="40" t="s">
@@ -3027,29 +3117,33 @@
       <c r="M28" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="40" t="s">
+      <c r="N28" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P28" s="40" t="s">
+      <c r="P28" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q28" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="R28" s="40" t="s">
+      <c r="R28" s="41" t="s">
         <v>45</v>
       </c>
       <c r="S28" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
+      <c r="T28" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U28" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V28" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W28" s="30"/>
       <c r="X28" s="6"/>
@@ -3062,34 +3156,34 @@
         <v>23.0</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="39">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F29" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G29" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J29" s="40" t="s">
         <v>44</v>
       </c>
       <c r="K29" s="40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L29" s="40" t="s">
         <v>44</v>
@@ -3101,7 +3195,7 @@
         <v>44</v>
       </c>
       <c r="O29" s="40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P29" s="40" t="s">
         <v>44</v>
@@ -3109,17 +3203,21 @@
       <c r="Q29" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="R29" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="S29" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
+      <c r="R29" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="S29" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="T29" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U29" s="41" t="s">
+        <v>45</v>
+      </c>
       <c r="V29" s="33">
         <f t="shared" si="3"/>
-        <v>61.53846154</v>
+        <v>80</v>
       </c>
       <c r="W29" s="30"/>
       <c r="X29" s="6"/>
@@ -3132,10 +3230,10 @@
         <v>24.0</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="39">
@@ -3144,12 +3242,12 @@
       </c>
       <c r="F30" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G30" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I30" s="40" t="s">
@@ -3161,7 +3259,7 @@
       <c r="K30" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L30" s="40" t="s">
+      <c r="L30" s="41" t="s">
         <v>45</v>
       </c>
       <c r="M30" s="40" t="s">
@@ -3185,11 +3283,15 @@
       <c r="S30" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
+      <c r="T30" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U30" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V30" s="33">
         <f t="shared" si="3"/>
-        <v>92.30769231</v>
+        <v>93.33333333</v>
       </c>
       <c r="W30" s="30"/>
       <c r="X30" s="6"/>
@@ -3202,10 +3304,10 @@
         <v>25.0</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="39">
@@ -3214,12 +3316,12 @@
       </c>
       <c r="F31" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G31" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I31" s="40" t="s">
@@ -3228,16 +3330,16 @@
       <c r="J31" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K31" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" s="40" t="s">
+      <c r="K31" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="41" t="s">
         <v>45</v>
       </c>
       <c r="M31" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N31" s="40" t="s">
+      <c r="N31" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O31" s="40" t="s">
@@ -3255,11 +3357,15 @@
       <c r="S31" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
+      <c r="T31" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U31" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V31" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W31" s="30"/>
       <c r="X31" s="6"/>
@@ -3272,10 +3378,10 @@
         <v>26.0</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="38"/>
       <c r="E32" s="39">
@@ -3284,18 +3390,18 @@
       </c>
       <c r="F32" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I32" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J32" s="40" t="s">
+      <c r="J32" s="41" t="s">
         <v>45</v>
       </c>
       <c r="K32" s="40" t="s">
@@ -3304,10 +3410,10 @@
       <c r="L32" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M32" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N32" s="40" t="s">
+      <c r="M32" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -3325,11 +3431,15 @@
       <c r="S32" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
+      <c r="T32" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U32" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V32" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W32" s="30"/>
       <c r="X32" s="6"/>
@@ -3342,10 +3452,10 @@
         <v>27.0</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="38"/>
       <c r="E33" s="39">
@@ -3354,15 +3464,15 @@
       </c>
       <c r="F33" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="40" t="s">
+      <c r="H33" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="41" t="s">
         <v>45</v>
       </c>
       <c r="J33" s="40" t="s">
@@ -3395,11 +3505,15 @@
       <c r="S33" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
+      <c r="T33" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U33" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V33" s="33">
         <f t="shared" si="3"/>
-        <v>92.30769231</v>
+        <v>93.33333333</v>
       </c>
       <c r="W33" s="30"/>
       <c r="X33" s="6"/>
@@ -3412,10 +3526,10 @@
         <v>28.0</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="39">
@@ -3424,7 +3538,7 @@
       </c>
       <c r="F34" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G34" s="40" t="s">
         <v>44</v>
@@ -3438,7 +3552,7 @@
       <c r="J34" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K34" s="40" t="s">
+      <c r="K34" s="41" t="s">
         <v>45</v>
       </c>
       <c r="L34" s="40" t="s">
@@ -3450,7 +3564,7 @@
       <c r="N34" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="O34" s="40" t="s">
+      <c r="O34" s="41" t="s">
         <v>45</v>
       </c>
       <c r="P34" s="40" t="s">
@@ -3465,11 +3579,15 @@
       <c r="S34" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
+      <c r="T34" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U34" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V34" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W34" s="30"/>
       <c r="X34" s="6"/>
@@ -3482,10 +3600,10 @@
         <v>29.0</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="38"/>
       <c r="E35" s="39">
@@ -3494,12 +3612,12 @@
       </c>
       <c r="F35" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I35" s="40" t="s">
@@ -3511,7 +3629,7 @@
       <c r="K35" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L35" s="40" t="s">
+      <c r="L35" s="41" t="s">
         <v>45</v>
       </c>
       <c r="M35" s="40" t="s">
@@ -3523,7 +3641,7 @@
       <c r="O35" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P35" s="40" t="s">
+      <c r="P35" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q35" s="40" t="s">
@@ -3535,11 +3653,15 @@
       <c r="S35" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
+      <c r="T35" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U35" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V35" s="33">
         <f t="shared" si="3"/>
-        <v>84.61538462</v>
+        <v>86.66666667</v>
       </c>
       <c r="W35" s="30"/>
       <c r="X35" s="6"/>
@@ -3552,24 +3674,24 @@
         <v>30.0</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="41" t="s">
+      <c r="H36" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I36" s="40" t="s">
@@ -3587,13 +3709,13 @@
       <c r="M36" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N36" s="40" t="s">
+      <c r="N36" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O36" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P36" s="40" t="s">
+      <c r="P36" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q36" s="40" t="s">
@@ -3605,11 +3727,15 @@
       <c r="S36" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
+      <c r="T36" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U36" s="41" t="s">
+        <v>45</v>
+      </c>
       <c r="V36" s="33">
         <f t="shared" si="3"/>
-        <v>84.61538462</v>
+        <v>80</v>
       </c>
       <c r="W36" s="30"/>
       <c r="X36" s="6"/>
@@ -3622,24 +3748,24 @@
         <v>31.0</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="41" t="s">
+      <c r="H37" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I37" s="40" t="s">
@@ -3663,7 +3789,7 @@
       <c r="O37" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P37" s="40" t="s">
+      <c r="P37" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q37" s="40" t="s">
@@ -3675,11 +3801,15 @@
       <c r="S37" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
+      <c r="T37" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="U37" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V37" s="33">
         <f t="shared" si="3"/>
-        <v>92.30769231</v>
+        <v>86.66666667</v>
       </c>
       <c r="W37" s="30"/>
       <c r="X37" s="6"/>
@@ -3692,42 +3822,42 @@
         <v>32.0</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D38" s="38"/>
       <c r="E38" s="39">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G38" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" s="40" t="s">
+      <c r="H38" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="41" t="s">
         <v>45</v>
       </c>
       <c r="J38" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K38" s="40" t="s">
+      <c r="K38" s="41" t="s">
         <v>45</v>
       </c>
       <c r="L38" s="40" t="s">
         <v>44</v>
       </c>
       <c r="M38" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N38" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="N38" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -3745,11 +3875,15 @@
       <c r="S38" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
+      <c r="T38" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U38" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V38" s="33">
         <f t="shared" si="3"/>
-        <v>69.23076923</v>
+        <v>80</v>
       </c>
       <c r="W38" s="30"/>
       <c r="X38" s="6"/>
@@ -3762,10 +3896,10 @@
         <v>33.0</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D39" s="38"/>
       <c r="E39" s="39">
@@ -3774,15 +3908,15 @@
       </c>
       <c r="F39" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" s="40" t="s">
+      <c r="H39" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="41" t="s">
         <v>45</v>
       </c>
       <c r="J39" s="40" t="s">
@@ -3794,7 +3928,7 @@
       <c r="L39" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M39" s="40" t="s">
+      <c r="M39" s="41" t="s">
         <v>45</v>
       </c>
       <c r="N39" s="40" t="s">
@@ -3806,7 +3940,7 @@
       <c r="P39" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="Q39" s="40" t="s">
+      <c r="Q39" s="41" t="s">
         <v>45</v>
       </c>
       <c r="R39" s="40" t="s">
@@ -3815,11 +3949,15 @@
       <c r="S39" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
+      <c r="T39" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U39" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V39" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W39" s="30"/>
       <c r="X39" s="6"/>
@@ -3832,10 +3970,10 @@
         <v>34.0</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="39">
@@ -3844,12 +3982,12 @@
       </c>
       <c r="F40" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G40" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="H40" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I40" s="40" t="s">
@@ -3858,7 +3996,7 @@
       <c r="J40" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K40" s="40" t="s">
+      <c r="K40" s="41" t="s">
         <v>45</v>
       </c>
       <c r="L40" s="40" t="s">
@@ -3873,7 +4011,7 @@
       <c r="O40" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P40" s="40" t="s">
+      <c r="P40" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q40" s="40" t="s">
@@ -3885,11 +4023,15 @@
       <c r="S40" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
+      <c r="T40" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U40" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V40" s="33">
         <f t="shared" si="3"/>
-        <v>84.61538462</v>
+        <v>86.66666667</v>
       </c>
       <c r="W40" s="30"/>
       <c r="X40" s="6"/>
@@ -3902,10 +4044,10 @@
         <v>35.0</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D41" s="38"/>
       <c r="E41" s="39">
@@ -3914,12 +4056,12 @@
       </c>
       <c r="F41" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G41" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="41" t="s">
+      <c r="H41" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I41" s="40" t="s">
@@ -3928,10 +4070,10 @@
       <c r="J41" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K41" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="L41" s="40" t="s">
+      <c r="K41" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="L41" s="41" t="s">
         <v>45</v>
       </c>
       <c r="M41" s="40" t="s">
@@ -3940,7 +4082,7 @@
       <c r="N41" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="O41" s="40" t="s">
+      <c r="O41" s="41" t="s">
         <v>45</v>
       </c>
       <c r="P41" s="40" t="s">
@@ -3955,11 +4097,15 @@
       <c r="S41" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
+      <c r="T41" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U41" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V41" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W41" s="30"/>
       <c r="X41" s="6"/>
@@ -3972,10 +4118,10 @@
         <v>36.0</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D42" s="38"/>
       <c r="E42" s="39">
@@ -3984,15 +4130,15 @@
       </c>
       <c r="F42" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G42" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I42" s="40" t="s">
+      <c r="H42" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="41" t="s">
         <v>45</v>
       </c>
       <c r="J42" s="40" t="s">
@@ -4007,13 +4153,13 @@
       <c r="M42" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N42" s="40" t="s">
+      <c r="N42" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O42" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P42" s="40" t="s">
+      <c r="P42" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q42" s="40" t="s">
@@ -4025,11 +4171,15 @@
       <c r="S42" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
+      <c r="T42" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U42" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V42" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W42" s="30"/>
       <c r="X42" s="6"/>
@@ -4042,10 +4192,10 @@
         <v>37.0</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D43" s="38"/>
       <c r="E43" s="39">
@@ -4054,18 +4204,18 @@
       </c>
       <c r="F43" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G43" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I43" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J43" s="40" t="s">
+      <c r="J43" s="41" t="s">
         <v>45</v>
       </c>
       <c r="K43" s="40" t="s">
@@ -4074,10 +4224,10 @@
       <c r="L43" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M43" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N43" s="40" t="s">
+      <c r="M43" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N43" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O43" s="40" t="s">
@@ -4095,11 +4245,15 @@
       <c r="S43" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
+      <c r="T43" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U43" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V43" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W43" s="30"/>
       <c r="X43" s="6"/>
@@ -4112,10 +4266,10 @@
         <v>38.0</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D44" s="38"/>
       <c r="E44" s="39">
@@ -4124,12 +4278,12 @@
       </c>
       <c r="F44" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G44" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I44" s="40" t="s">
@@ -4165,8 +4319,12 @@
       <c r="S44" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
+      <c r="T44" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U44" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V44" s="33">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -4182,10 +4340,10 @@
         <v>39.0</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D45" s="38"/>
       <c r="E45" s="39">
@@ -4194,18 +4352,18 @@
       </c>
       <c r="F45" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G45" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I45" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="40" t="s">
+      <c r="J45" s="41" t="s">
         <v>45</v>
       </c>
       <c r="K45" s="40" t="s">
@@ -4214,7 +4372,7 @@
       <c r="L45" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="40" t="s">
+      <c r="M45" s="41" t="s">
         <v>45</v>
       </c>
       <c r="N45" s="40" t="s">
@@ -4235,11 +4393,15 @@
       <c r="S45" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
+      <c r="T45" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U45" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V45" s="33">
         <f t="shared" si="3"/>
-        <v>84.61538462</v>
+        <v>86.66666667</v>
       </c>
       <c r="W45" s="30"/>
       <c r="X45" s="6"/>
@@ -4252,40 +4414,40 @@
         <v>40.0</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D46" s="38"/>
       <c r="E46" s="39">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G46" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H46" s="41" t="s">
+      <c r="H46" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I46" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J46" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="K46" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="L46" s="40" t="s">
+      <c r="J46" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" s="41" t="s">
         <v>45</v>
       </c>
       <c r="M46" s="40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N46" s="40" t="s">
         <v>44</v>
@@ -4305,11 +4467,15 @@
       <c r="S46" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
+      <c r="T46" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U46" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V46" s="33">
         <f t="shared" si="3"/>
-        <v>69.23076923</v>
+        <v>80</v>
       </c>
       <c r="W46" s="30"/>
       <c r="X46" s="6"/>
@@ -4322,10 +4488,10 @@
         <v>41.0</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D47" s="38"/>
       <c r="E47" s="39">
@@ -4334,15 +4500,15 @@
       </c>
       <c r="F47" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G47" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47" s="40" t="s">
+      <c r="H47" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="41" t="s">
         <v>45</v>
       </c>
       <c r="J47" s="40" t="s">
@@ -4363,10 +4529,10 @@
       <c r="O47" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P47" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q47" s="40" t="s">
+      <c r="P47" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q47" s="41" t="s">
         <v>45</v>
       </c>
       <c r="R47" s="40" t="s">
@@ -4375,11 +4541,15 @@
       <c r="S47" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
+      <c r="T47" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U47" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V47" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W47" s="30"/>
       <c r="X47" s="6"/>
@@ -4392,30 +4562,30 @@
         <v>42.0</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D48" s="38"/>
       <c r="E48" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H48" s="41" t="s">
+      <c r="H48" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I48" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J48" s="40" t="s">
+      <c r="J48" s="41" t="s">
         <v>45</v>
       </c>
       <c r="K48" s="40" t="s">
@@ -4427,7 +4597,7 @@
       <c r="M48" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N48" s="40" t="s">
+      <c r="N48" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -4445,11 +4615,15 @@
       <c r="S48" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
+      <c r="T48" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U48" s="41" t="s">
+        <v>45</v>
+      </c>
       <c r="V48" s="33">
         <f t="shared" si="3"/>
-        <v>84.61538462</v>
+        <v>80</v>
       </c>
       <c r="W48" s="30"/>
       <c r="X48" s="6"/>
@@ -4462,10 +4636,10 @@
         <v>43.0</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D49" s="38"/>
       <c r="E49" s="39">
@@ -4474,15 +4648,15 @@
       </c>
       <c r="F49" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G49" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" s="40" t="s">
+      <c r="H49" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="41" t="s">
         <v>45</v>
       </c>
       <c r="J49" s="40" t="s">
@@ -4494,10 +4668,10 @@
       <c r="L49" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M49" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N49" s="40" t="s">
+      <c r="M49" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N49" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O49" s="40" t="s">
@@ -4515,11 +4689,15 @@
       <c r="S49" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
+      <c r="T49" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U49" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V49" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W49" s="30"/>
       <c r="X49" s="6"/>
@@ -4532,10 +4710,10 @@
         <v>44.0</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D50" s="38"/>
       <c r="E50" s="39">
@@ -4544,18 +4722,18 @@
       </c>
       <c r="F50" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G50" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H50" s="41" t="s">
+      <c r="H50" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I50" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J50" s="40" t="s">
+      <c r="J50" s="41" t="s">
         <v>45</v>
       </c>
       <c r="K50" s="40" t="s">
@@ -4567,13 +4745,13 @@
       <c r="M50" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N50" s="40" t="s">
+      <c r="N50" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O50" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P50" s="40" t="s">
+      <c r="P50" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q50" s="40" t="s">
@@ -4585,11 +4763,15 @@
       <c r="S50" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
+      <c r="T50" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U50" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V50" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W50" s="30"/>
       <c r="X50" s="6"/>
@@ -4602,15 +4784,15 @@
         <v>45.0</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D51" s="38"/>
       <c r="E51" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" s="39">
         <f t="shared" si="2"/>
@@ -4619,7 +4801,7 @@
       <c r="G51" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="41" t="s">
+      <c r="H51" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I51" s="40" t="s">
@@ -4634,7 +4816,7 @@
       <c r="L51" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M51" s="40" t="s">
+      <c r="M51" s="41" t="s">
         <v>45</v>
       </c>
       <c r="N51" s="40" t="s">
@@ -4655,11 +4837,15 @@
       <c r="S51" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
+      <c r="T51" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="U51" s="41" t="s">
+        <v>45</v>
+      </c>
       <c r="V51" s="33">
         <f t="shared" si="3"/>
-        <v>92.30769231</v>
+        <v>80</v>
       </c>
       <c r="W51" s="30"/>
       <c r="X51" s="6"/>
@@ -4672,24 +4858,24 @@
         <v>46.0</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D52" s="38"/>
       <c r="E52" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="G52" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I52" s="40" t="s">
@@ -4719,17 +4905,21 @@
       <c r="Q52" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="R52" s="40" t="s">
+      <c r="R52" s="41" t="s">
         <v>45</v>
       </c>
       <c r="S52" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
+      <c r="T52" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U52" s="41" t="s">
+        <v>45</v>
+      </c>
       <c r="V52" s="33">
         <f t="shared" si="3"/>
-        <v>84.61538462</v>
+        <v>80</v>
       </c>
       <c r="W52" s="30"/>
       <c r="X52" s="6"/>
@@ -4742,10 +4932,10 @@
         <v>47.0</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D53" s="38"/>
       <c r="E53" s="39">
@@ -4754,15 +4944,15 @@
       </c>
       <c r="F53" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G53" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H53" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I53" s="40" t="s">
+      <c r="H53" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" s="41" t="s">
         <v>45</v>
       </c>
       <c r="J53" s="40" t="s">
@@ -4774,11 +4964,11 @@
       <c r="L53" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M53" s="40" t="s">
+      <c r="M53" s="41" t="s">
         <v>45</v>
       </c>
       <c r="N53" s="40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O53" s="40" t="s">
         <v>44</v>
@@ -4795,11 +4985,15 @@
       <c r="S53" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
+      <c r="T53" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U53" s="41" t="s">
+        <v>45</v>
+      </c>
       <c r="V53" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W53" s="30"/>
       <c r="X53" s="6"/>
@@ -4812,24 +5006,24 @@
         <v>48.0</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D54" s="38"/>
       <c r="E54" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H54" s="41" t="s">
+      <c r="H54" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I54" s="40" t="s">
@@ -4844,7 +5038,7 @@
       <c r="L54" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M54" s="40" t="s">
+      <c r="M54" s="41" t="s">
         <v>45</v>
       </c>
       <c r="N54" s="40" t="s">
@@ -4865,11 +5059,15 @@
       <c r="S54" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
+      <c r="T54" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="U54" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V54" s="33">
         <f t="shared" si="3"/>
-        <v>92.30769231</v>
+        <v>86.66666667</v>
       </c>
       <c r="W54" s="30"/>
       <c r="X54" s="6"/>
@@ -4882,10 +5080,10 @@
         <v>49.0</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D55" s="38"/>
       <c r="E55" s="39">
@@ -4894,21 +5092,21 @@
       </c>
       <c r="F55" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G55" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I55" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="J55" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="K55" s="40" t="s">
+      <c r="H55" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J55" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K55" s="41" t="s">
         <v>45</v>
       </c>
       <c r="L55" s="40" t="s">
@@ -4935,11 +5133,15 @@
       <c r="S55" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
+      <c r="T55" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U55" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V55" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W55" s="30"/>
       <c r="X55" s="6"/>
@@ -4952,24 +5154,24 @@
         <v>50.0</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D56" s="38"/>
       <c r="E56" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G56" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H56" s="41" t="s">
+      <c r="H56" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I56" s="40" t="s">
@@ -4978,7 +5180,7 @@
       <c r="J56" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K56" s="40" t="s">
+      <c r="K56" s="41" t="s">
         <v>45</v>
       </c>
       <c r="L56" s="40" t="s">
@@ -4993,7 +5195,7 @@
       <c r="O56" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P56" s="40" t="s">
+      <c r="P56" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q56" s="40" t="s">
@@ -5005,11 +5207,15 @@
       <c r="S56" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
+      <c r="T56" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U56" s="41" t="s">
+        <v>45</v>
+      </c>
       <c r="V56" s="33">
         <f t="shared" si="3"/>
-        <v>84.61538462</v>
+        <v>80</v>
       </c>
       <c r="W56" s="30"/>
       <c r="X56" s="6"/>
@@ -5022,10 +5228,10 @@
         <v>51.0</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D57" s="38"/>
       <c r="E57" s="39">
@@ -5034,15 +5240,15 @@
       </c>
       <c r="F57" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G57" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I57" s="40" t="s">
+      <c r="H57" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" s="41" t="s">
         <v>45</v>
       </c>
       <c r="J57" s="40" t="s">
@@ -5069,17 +5275,21 @@
       <c r="Q57" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="R57" s="40" t="s">
+      <c r="R57" s="41" t="s">
         <v>45</v>
       </c>
       <c r="S57" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
+      <c r="T57" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U57" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V57" s="33">
         <f t="shared" si="3"/>
-        <v>84.61538462</v>
+        <v>86.66666667</v>
       </c>
       <c r="W57" s="30"/>
       <c r="X57" s="6"/>
@@ -5092,10 +5302,10 @@
         <v>52.0</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D58" s="38"/>
       <c r="E58" s="39">
@@ -5104,12 +5314,12 @@
       </c>
       <c r="F58" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G58" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H58" s="41" t="s">
+      <c r="H58" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I58" s="40" t="s">
@@ -5118,13 +5328,13 @@
       <c r="J58" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K58" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="L58" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="M58" s="40" t="s">
+      <c r="K58" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="L58" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="M58" s="41" t="s">
         <v>45</v>
       </c>
       <c r="N58" s="40" t="s">
@@ -5145,11 +5355,15 @@
       <c r="S58" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
+      <c r="T58" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U58" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V58" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W58" s="30"/>
       <c r="X58" s="6"/>
@@ -5162,27 +5376,27 @@
         <v>53.0</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D59" s="38"/>
       <c r="E59" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G59" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H59" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I59" s="40" t="s">
+      <c r="H59" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I59" s="41" t="s">
         <v>45</v>
       </c>
       <c r="J59" s="40" t="s">
@@ -5194,7 +5408,7 @@
       <c r="L59" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M59" s="40" t="s">
+      <c r="M59" s="41" t="s">
         <v>45</v>
       </c>
       <c r="N59" s="40" t="s">
@@ -5215,11 +5429,15 @@
       <c r="S59" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
+      <c r="T59" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U59" s="41" t="s">
+        <v>45</v>
+      </c>
       <c r="V59" s="33">
         <f t="shared" si="3"/>
-        <v>84.61538462</v>
+        <v>80</v>
       </c>
       <c r="W59" s="30"/>
       <c r="X59" s="6"/>
@@ -5232,10 +5450,10 @@
         <v>54.0</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D60" s="38"/>
       <c r="E60" s="39">
@@ -5244,12 +5462,12 @@
       </c>
       <c r="F60" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G60" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H60" s="41" t="s">
+      <c r="H60" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I60" s="40" t="s">
@@ -5261,7 +5479,7 @@
       <c r="K60" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L60" s="40" t="s">
+      <c r="L60" s="41" t="s">
         <v>45</v>
       </c>
       <c r="M60" s="40" t="s">
@@ -5285,11 +5503,15 @@
       <c r="S60" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T60" s="43"/>
-      <c r="U60" s="43"/>
+      <c r="T60" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U60" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V60" s="33">
         <f t="shared" si="3"/>
-        <v>92.30769231</v>
+        <v>93.33333333</v>
       </c>
       <c r="W60" s="30"/>
       <c r="X60" s="6"/>
@@ -5302,10 +5524,10 @@
         <v>55.0</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D61" s="38"/>
       <c r="E61" s="39">
@@ -5314,12 +5536,12 @@
       </c>
       <c r="F61" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G61" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="41" t="s">
+      <c r="H61" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I61" s="40" t="s">
@@ -5331,7 +5553,7 @@
       <c r="K61" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L61" s="40" t="s">
+      <c r="L61" s="41" t="s">
         <v>45</v>
       </c>
       <c r="M61" s="40" t="s">
@@ -5346,20 +5568,24 @@
       <c r="P61" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="Q61" s="40" t="s">
+      <c r="Q61" s="41" t="s">
         <v>45</v>
       </c>
       <c r="R61" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="S61" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="T61" s="43"/>
-      <c r="U61" s="43"/>
+      <c r="S61" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="T61" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U61" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V61" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W61" s="30"/>
       <c r="X61" s="6"/>
@@ -5372,10 +5598,10 @@
         <v>56.0</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D62" s="38"/>
       <c r="E62" s="39">
@@ -5384,12 +5610,12 @@
       </c>
       <c r="F62" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G62" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H62" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I62" s="40" t="s">
@@ -5407,7 +5633,7 @@
       <c r="M62" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N62" s="40" t="s">
+      <c r="N62" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O62" s="40" t="s">
@@ -5419,17 +5645,21 @@
       <c r="Q62" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="R62" s="40" t="s">
+      <c r="R62" s="41" t="s">
         <v>45</v>
       </c>
       <c r="S62" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T62" s="43"/>
-      <c r="U62" s="43"/>
+      <c r="T62" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U62" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V62" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W62" s="30"/>
       <c r="X62" s="6"/>
@@ -5442,10 +5672,10 @@
         <v>57.0</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D63" s="38"/>
       <c r="E63" s="39">
@@ -5454,12 +5684,12 @@
       </c>
       <c r="F63" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G63" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H63" s="41" t="s">
+      <c r="H63" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I63" s="40" t="s">
@@ -5468,7 +5698,7 @@
       <c r="J63" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K63" s="40" t="s">
+      <c r="K63" s="41" t="s">
         <v>45</v>
       </c>
       <c r="L63" s="40" t="s">
@@ -5477,13 +5707,13 @@
       <c r="M63" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N63" s="40" t="s">
+      <c r="N63" s="41" t="s">
         <v>45</v>
       </c>
       <c r="O63" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P63" s="40" t="s">
+      <c r="P63" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q63" s="40" t="s">
@@ -5495,11 +5725,15 @@
       <c r="S63" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T63" s="43"/>
-      <c r="U63" s="43"/>
+      <c r="T63" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U63" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V63" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W63" s="30"/>
       <c r="X63" s="6"/>
@@ -5512,10 +5746,10 @@
         <v>58.0</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D64" s="38"/>
       <c r="E64" s="39">
@@ -5524,12 +5758,12 @@
       </c>
       <c r="F64" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G64" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H64" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I64" s="40" t="s">
@@ -5553,23 +5787,27 @@
       <c r="O64" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P64" s="40" t="s">
+      <c r="P64" s="41" t="s">
         <v>45</v>
       </c>
       <c r="Q64" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="R64" s="40" t="s">
+      <c r="R64" s="41" t="s">
         <v>45</v>
       </c>
       <c r="S64" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T64" s="43"/>
-      <c r="U64" s="43"/>
+      <c r="T64" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U64" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V64" s="33">
         <f t="shared" si="3"/>
-        <v>76.92307692</v>
+        <v>80</v>
       </c>
       <c r="W64" s="30"/>
       <c r="X64" s="6"/>
@@ -5582,30 +5820,30 @@
         <v>59.0</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D65" s="38"/>
       <c r="E65" s="39">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="G65" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H65" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I65" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J65" s="40" t="s">
+      <c r="J65" s="41" t="s">
         <v>45</v>
       </c>
       <c r="K65" s="40" t="s">
@@ -5635,11 +5873,15 @@
       <c r="S65" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T65" s="43"/>
-      <c r="U65" s="43"/>
+      <c r="T65" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="U65" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="V65" s="33">
         <f t="shared" si="3"/>
-        <v>84.61538462</v>
+        <v>80</v>
       </c>
       <c r="W65" s="30"/>
       <c r="X65" s="6"/>
@@ -5648,66 +5890,72 @@
       <c r="AA65" s="6"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="44"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="40">
-        <f t="shared" ref="G66:S66" si="4">COUNTIF(G7:G65,"A")</f>
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="45">
+        <f t="shared" ref="G66:U66" si="4">COUNTIF(G7:G65,"A")</f>
         <v>5</v>
       </c>
-      <c r="H66" s="40">
+      <c r="H66" s="45">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I66" s="40">
+      <c r="I66" s="45">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="J66" s="45">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="K66" s="45">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="L66" s="45">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="M66" s="45">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="J66" s="40">
+      <c r="N66" s="45">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="K66" s="40">
+        <v>20</v>
+      </c>
+      <c r="O66" s="45">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P66" s="45">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="L66" s="40">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="M66" s="40">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="N66" s="40">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="O66" s="40">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="P66" s="40">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="Q66" s="40">
+      <c r="Q66" s="45">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="R66" s="40">
+      <c r="R66" s="45">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="S66" s="40">
+      <c r="S66" s="45">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="T66" s="40"/>
-      <c r="U66" s="40"/>
+      <c r="T66" s="45">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="U66" s="45">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
       <c r="V66" s="33"/>
       <c r="W66" s="30"/>
       <c r="X66" s="6"/>
@@ -5722,22 +5970,22 @@
       <c r="D67" s="8"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="45"/>
-      <c r="M67" s="45"/>
-      <c r="N67" s="45"/>
-      <c r="O67" s="45"/>
-      <c r="P67" s="45"/>
-      <c r="Q67" s="44"/>
-      <c r="R67" s="44"/>
-      <c r="S67" s="44"/>
-      <c r="T67" s="44"/>
-      <c r="U67" s="46"/>
-      <c r="V67" s="47"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="42"/>
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="44"/>
+      <c r="V67" s="46"/>
       <c r="W67" s="30"/>
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
@@ -5766,7 +6014,7 @@
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
       <c r="U68" s="15"/>
-      <c r="V68" s="47"/>
+      <c r="V68" s="46"/>
       <c r="W68" s="30"/>
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
@@ -5795,7 +6043,7 @@
       <c r="S69" s="6"/>
       <c r="T69" s="6"/>
       <c r="U69" s="15"/>
-      <c r="V69" s="47"/>
+      <c r="V69" s="46"/>
       <c r="W69" s="30"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
@@ -5824,7 +6072,7 @@
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
       <c r="U70" s="15"/>
-      <c r="V70" s="47"/>
+      <c r="V70" s="46"/>
       <c r="W70" s="30"/>
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
@@ -5853,7 +6101,7 @@
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
       <c r="U71" s="15"/>
-      <c r="V71" s="47"/>
+      <c r="V71" s="46"/>
       <c r="W71" s="30"/>
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
@@ -5882,7 +6130,7 @@
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
       <c r="U72" s="15"/>
-      <c r="V72" s="47"/>
+      <c r="V72" s="46"/>
       <c r="W72" s="30"/>
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
@@ -5911,7 +6159,7 @@
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
       <c r="U73" s="15"/>
-      <c r="V73" s="47"/>
+      <c r="V73" s="46"/>
       <c r="W73" s="30"/>
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
@@ -5940,7 +6188,7 @@
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
       <c r="U74" s="15"/>
-      <c r="V74" s="47"/>
+      <c r="V74" s="46"/>
       <c r="W74" s="30"/>
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
@@ -5969,7 +6217,7 @@
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
       <c r="U75" s="15"/>
-      <c r="V75" s="47"/>
+      <c r="V75" s="46"/>
       <c r="W75" s="30"/>
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
@@ -5998,7 +6246,7 @@
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
       <c r="U76" s="15"/>
-      <c r="V76" s="47"/>
+      <c r="V76" s="46"/>
       <c r="W76" s="30"/>
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
@@ -6027,7 +6275,7 @@
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
       <c r="U77" s="15"/>
-      <c r="V77" s="47"/>
+      <c r="V77" s="46"/>
       <c r="W77" s="30"/>
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
@@ -6056,7 +6304,7 @@
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
       <c r="U78" s="15"/>
-      <c r="V78" s="47"/>
+      <c r="V78" s="46"/>
       <c r="W78" s="30"/>
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
@@ -6085,7 +6333,7 @@
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
       <c r="U79" s="15"/>
-      <c r="V79" s="47"/>
+      <c r="V79" s="46"/>
       <c r="W79" s="30"/>
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
@@ -6114,7 +6362,7 @@
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
       <c r="U80" s="15"/>
-      <c r="V80" s="47"/>
+      <c r="V80" s="46"/>
       <c r="W80" s="30"/>
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
@@ -6143,7 +6391,7 @@
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
       <c r="U81" s="15"/>
-      <c r="V81" s="47"/>
+      <c r="V81" s="46"/>
       <c r="W81" s="30"/>
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
@@ -6172,7 +6420,7 @@
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
       <c r="U82" s="15"/>
-      <c r="V82" s="47"/>
+      <c r="V82" s="46"/>
       <c r="W82" s="30"/>
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
@@ -6201,7 +6449,7 @@
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
       <c r="U83" s="15"/>
-      <c r="V83" s="47"/>
+      <c r="V83" s="46"/>
       <c r="W83" s="30"/>
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
@@ -6230,7 +6478,7 @@
       <c r="S84" s="6"/>
       <c r="T84" s="6"/>
       <c r="U84" s="15"/>
-      <c r="V84" s="47"/>
+      <c r="V84" s="46"/>
       <c r="W84" s="30"/>
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
@@ -6259,7 +6507,7 @@
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
       <c r="U85" s="15"/>
-      <c r="V85" s="47"/>
+      <c r="V85" s="46"/>
       <c r="W85" s="30"/>
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
@@ -6288,7 +6536,7 @@
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
       <c r="U86" s="15"/>
-      <c r="V86" s="48"/>
+      <c r="V86" s="47"/>
       <c r="W86" s="30"/>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
@@ -6317,7 +6565,7 @@
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
       <c r="U87" s="15"/>
-      <c r="V87" s="49"/>
+      <c r="V87" s="48"/>
       <c r="W87" s="30"/>
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
@@ -6346,7 +6594,7 @@
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
       <c r="U88" s="15"/>
-      <c r="V88" s="49"/>
+      <c r="V88" s="48"/>
       <c r="W88" s="30"/>
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
@@ -6375,7 +6623,7 @@
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
       <c r="U89" s="15"/>
-      <c r="V89" s="49"/>
+      <c r="V89" s="48"/>
       <c r="W89" s="30"/>
       <c r="X89" s="6"/>
       <c r="Y89" s="6"/>
@@ -6404,7 +6652,7 @@
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
       <c r="U90" s="15"/>
-      <c r="V90" s="49"/>
+      <c r="V90" s="48"/>
       <c r="W90" s="30"/>
       <c r="X90" s="6"/>
       <c r="Y90" s="6"/>
@@ -6433,7 +6681,7 @@
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
       <c r="U91" s="15"/>
-      <c r="V91" s="49"/>
+      <c r="V91" s="48"/>
       <c r="W91" s="30"/>
       <c r="X91" s="6"/>
       <c r="Y91" s="6"/>
@@ -6462,7 +6710,7 @@
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
       <c r="U92" s="15"/>
-      <c r="V92" s="49"/>
+      <c r="V92" s="48"/>
       <c r="W92" s="30"/>
       <c r="X92" s="6"/>
       <c r="Y92" s="6"/>
@@ -6491,7 +6739,7 @@
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
       <c r="U93" s="15"/>
-      <c r="V93" s="49"/>
+      <c r="V93" s="48"/>
       <c r="W93" s="30"/>
       <c r="X93" s="6"/>
       <c r="Y93" s="6"/>
@@ -6520,7 +6768,7 @@
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
       <c r="U94" s="15"/>
-      <c r="V94" s="49"/>
+      <c r="V94" s="48"/>
       <c r="W94" s="30"/>
       <c r="X94" s="6"/>
       <c r="Y94" s="6"/>
@@ -6549,7 +6797,7 @@
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
       <c r="U95" s="15"/>
-      <c r="V95" s="49"/>
+      <c r="V95" s="48"/>
       <c r="W95" s="30"/>
       <c r="X95" s="6"/>
       <c r="Y95" s="6"/>
@@ -6578,7 +6826,7 @@
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
       <c r="U96" s="15"/>
-      <c r="V96" s="49"/>
+      <c r="V96" s="48"/>
       <c r="W96" s="30"/>
       <c r="X96" s="6"/>
       <c r="Y96" s="6"/>
@@ -6607,7 +6855,7 @@
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
       <c r="U97" s="15"/>
-      <c r="V97" s="49"/>
+      <c r="V97" s="48"/>
       <c r="W97" s="30"/>
       <c r="X97" s="6"/>
       <c r="Y97" s="6"/>
@@ -6636,7 +6884,7 @@
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
       <c r="U98" s="15"/>
-      <c r="V98" s="49"/>
+      <c r="V98" s="48"/>
       <c r="W98" s="30"/>
       <c r="X98" s="6"/>
       <c r="Y98" s="6"/>
@@ -6665,7 +6913,7 @@
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
       <c r="U99" s="15"/>
-      <c r="V99" s="49"/>
+      <c r="V99" s="48"/>
       <c r="W99" s="30"/>
       <c r="X99" s="6"/>
       <c r="Y99" s="6"/>
@@ -6694,7 +6942,7 @@
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
       <c r="U100" s="15"/>
-      <c r="V100" s="49"/>
+      <c r="V100" s="48"/>
       <c r="W100" s="30"/>
       <c r="X100" s="6"/>
       <c r="Y100" s="6"/>
@@ -6723,7 +6971,7 @@
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
       <c r="U101" s="15"/>
-      <c r="V101" s="49"/>
+      <c r="V101" s="48"/>
       <c r="W101" s="30"/>
       <c r="X101" s="6"/>
       <c r="Y101" s="6"/>
@@ -6752,7 +7000,7 @@
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
       <c r="U102" s="15"/>
-      <c r="V102" s="49"/>
+      <c r="V102" s="48"/>
       <c r="W102" s="30"/>
       <c r="X102" s="6"/>
       <c r="Y102" s="6"/>
@@ -6781,7 +7029,7 @@
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
-      <c r="V103" s="44"/>
+      <c r="V103" s="42"/>
       <c r="W103" s="6"/>
       <c r="X103" s="6"/>
       <c r="Y103" s="6"/>
@@ -12203,7 +12451,7 @@
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:S65">
+  <conditionalFormatting sqref="G7:U65">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
